--- a/input/IT/EUROMODpolicySchedule.xlsx
+++ b/input/IT/EUROMODpolicySchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="77">
   <si>
     <t>Filename</t>
   </si>

--- a/input/IT/EUROMODpolicySchedule.xlsx
+++ b/input/IT/EUROMODpolicySchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="77">
   <si>
     <t>Filename</t>
   </si>
